--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxia/Desktop/yanxia-practice/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FC29AF-0EA5-0740-A334-24C9E3823268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196DFC52-357E-1F49-958C-F14D94CDEFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15960" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1504,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353ADD94-A7CE-3141-A96C-85CD79D38D34}">
   <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
